--- a/webscrapping final/Bases finales/base_2019.xlsx
+++ b/webscrapping final/Bases finales/base_2019.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11102"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\angel\Documents\GitHub\SED---Cuantitativo\webscrapping final\Bases finales\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tatianarodriguez/Documents/SED-git/webscrapping final/Bases finales/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{05042375-5DD2-4012-BEFA-EE8897398A46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92C72C0D-40BB-384C-80D5-AB0B19252CF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{F1A384A9-5941-4992-AED0-353B2BFB813F}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="32000" windowHeight="18000" xr2:uid="{F1A384A9-5941-4992-AED0-353B2BFB813F}"/>
   </bookViews>
   <sheets>
     <sheet name="BASE_PAROS_UNIFICADOS_2019 (4)" sheetId="2" r:id="rId1"/>
     <sheet name="Hoja1" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="DatosExternos_1" localSheetId="0" hidden="1">'BASE_PAROS_UNIFICADOS_2019 (4)'!$A$1:$M$10</definedName>
+    <definedName name="DatosExternos_1" localSheetId="0" hidden="1">'BASE_PAROS_UNIFICADOS_2019 (4)'!$A$1:$M$9</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="76">
   <si>
     <t>fecha_inicio</t>
   </si>
@@ -149,27 +149,9 @@
     <t>https://www.uniminutoradio.com.co/fecode-anuncio-paro-de-maestros-para-el-proximo-26-de-julio/</t>
   </si>
   <si>
-    <t>NO ESPECÍFICA</t>
-  </si>
-  <si>
-    <t>amenazas a docentes y condiciones laborales</t>
-  </si>
-  <si>
-    <t>Docentes en Bogotá realizan marchas en el marco de un paro convocado por Fecode, afectando el sistema de transporte TransMilenio y generando caos en las vías principales de la ciudad.</t>
-  </si>
-  <si>
-    <t>BQ</t>
-  </si>
-  <si>
     <t>https://www.publimetro.co/co/noticias/2019/09/12/caos-transmilenio-marchas-del-paro-docentes.html</t>
   </si>
   <si>
-    <t>deficiente prestación del servicio de salud para los maestros y sus familias</t>
-  </si>
-  <si>
-    <t>Fecode anunció un paro de dos días a nivel nacional para exigir soluciones a la deficiente atención en salud de los docentes y sus familias.</t>
-  </si>
-  <si>
     <t>https://www.minuto30.com/fecode-anuncio-que-profesores-saldran-nuevamente-a-paro-durante-dos-dias-en-el-pais/873908/</t>
   </si>
   <si>
@@ -218,23 +200,89 @@
     <t>https://www.eltiempo.com/vida/educacion/paro-nacional-21-de-noviembre-en-colombia-siga-en-vivo-la-jornada-de-marchas-435814</t>
   </si>
   <si>
-    <t>CUT; FECODE</t>
-  </si>
-  <si>
-    <t>Las demandas incluyen la derogación de reformas económicas, justicia por la muerte de Dilan Cruz y el desmantelamiento del Esmad.</t>
-  </si>
-  <si>
-    <t>Se convoca un paro nacional en Colombia en respuesta a la represión de las protestas y demandas económicas, con participación de sindicatos y estudiantes.</t>
-  </si>
-  <si>
-    <t>https://elpais.com/internacional/2019/11/26/colombia/1574784464_965703.html</t>
+    <t>url_5</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/share/p/1CpogiJEiZ/</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/share/p/17MPyBeDbw/</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/share/p/16PQ5y6eJ2/</t>
+  </si>
+  <si>
+    <t>Bogotá</t>
+  </si>
+  <si>
+    <t>ADE, FECODE</t>
+  </si>
+  <si>
+    <t>Paro de 24 horas y Plantón</t>
+  </si>
+  <si>
+    <t>Exigir atención en salud digna y mejores condiciones laborales para los docentes</t>
+  </si>
+  <si>
+    <t>Plantón de la ADE frente a la Secretaría de Educación Distrital en el marco del paro de 24 horas del magisterio en Bogotá.</t>
+  </si>
+  <si>
+    <t>Publicación oficial de FECODE (Facebook)</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/share/p/17Mni6XzTd/</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/share/p/16VzkFZgFJ/</t>
+  </si>
+  <si>
+    <t>https://www.eltiempo.com/vida/educacion/habra-paro-de-maestros-de-colegios-publicos-en-bogota-el-30-de-mayo-367976?fbclid=IwY2xjawN5jCtleHRuA2FlbQIxMQBzcnRjBmFwcF9pZBAyMjIwMzkxNzg4MjAwODkyAAEeA9JfCXXakcFLmPGITmfREOyNlIINgzP2ecJP2nD3--cU6em-MdWL3UfSNUY_aem_xcKNz3mHcdv59PAXKakPRg</t>
+  </si>
+  <si>
+    <t>ADE</t>
+  </si>
+  <si>
+    <t>Plantón / Jornada de Movilización</t>
+  </si>
+  <si>
+    <t>Rechazo al irrespeto de la SED hacia los docentes provisionales, falta de asignación académica, deficiencias en salud y negación de cupos escolares</t>
+  </si>
+  <si>
+    <t>Jornada “Magisterio a las calles” convocada por la ADE en la Plazoleta de la SED, exigiendo el #DesmonteDelESMADYa y mejores condiciones laborales y de salud para el magisterio.</t>
+  </si>
+  <si>
+    <t>Asociación Distrital de Educadores (ADE)</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/share/p/1Z92D48P9V/</t>
+  </si>
+  <si>
+    <t>Federación Colombiana de Trabajadores de la Educación (FECODE), Central Unitaria de Trabajadores (CUT), otros sindicatos y sectores sociales</t>
+  </si>
+  <si>
+    <t>Paro nacional / movilización</t>
+  </si>
+  <si>
+    <t>Rechazo al Plan Nacional de Desarrollo del gobierno, exigencia de cumplimiento de acuerdos con maestros, defensa de derechos laborales y del sistema educativo</t>
+  </si>
+  <si>
+    <t>Jornada de movilización nacional en la que el magisterio junto a otros sectores protestaron en Bogotá y otras ciudades contra el plan de desarrollo del gobierno y por los derechos del sector educativo. (El Tiempo)</t>
+  </si>
+  <si>
+    <t>El Tiempo (minuto a minuto) El Tiempo</t>
+  </si>
+  <si>
+    <t>https://www.eltiempo.com/colombia/otras-ciudades/paro-nacional-del-25-de-abril-minuto-a-minuto-de-lo-que-sucede-353434</t>
+  </si>
+  <si>
+    <t>ttps://www.elpaisvallenato.com/2019/05/17/fecode-logra-acuerdos-trascendentales-con-el-gobierno-nacional-pero-falta-negociar-alza-salarial/?utm_source</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -242,16 +290,41 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -259,38 +332,52 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
+  <dxfs count="13">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -311,12 +398,26 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="d/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="d/mm/yyyy"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -333,8 +434,8 @@
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="DatosExternos_1" connectionId="1" xr16:uid="{F81A098C-61C9-4A7B-B20D-1ED59371EBB0}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh nextId="14">
-    <queryTableFields count="13">
+  <queryTableRefresh nextId="15" unboundColumnsRight="1">
+    <queryTableFields count="14">
       <queryTableField id="1" name="fecha_inicio" tableColumnId="1"/>
       <queryTableField id="2" name="fecha_fin" tableColumnId="2"/>
       <queryTableField id="3" name="ciudad" tableColumnId="3"/>
@@ -348,35 +449,40 @@
       <queryTableField id="11" name="url_2" tableColumnId="11"/>
       <queryTableField id="12" name="url_3" tableColumnId="12"/>
       <queryTableField id="13" name="url_4" tableColumnId="13"/>
+      <queryTableField id="14" dataBound="0" tableColumnId="14"/>
     </queryTableFields>
   </queryTableRefresh>
 </queryTable>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E643BFA3-65CC-4538-B0BA-0E84F20F6D82}" name="BASE_PAROS_UNIFICADOS_2019__4" displayName="BASE_PAROS_UNIFICADOS_2019__4" ref="A1:M10" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:M10" xr:uid="{E643BFA3-65CC-4538-B0BA-0E84F20F6D82}"/>
-  <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{B8FF729F-D099-4B49-99A9-58BAA2C49EC4}" uniqueName="1" name="fecha_inicio" queryTableFieldId="1" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{498A78DD-0D4E-4901-8903-17F783BDB9F3}" uniqueName="2" name="fecha_fin" queryTableFieldId="2" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{7E3A52E4-41CE-49E4-8399-0042C5A6911E}" uniqueName="3" name="ciudad" queryTableFieldId="3" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{308212A5-4083-4D58-BDAD-463ED98EF1C2}" uniqueName="4" name="organizaciones_sindicales" queryTableFieldId="4" dataDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{763AF837-817F-41D2-AD37-B33D2816A3E5}" uniqueName="5" name="tipo_movilizacion" queryTableFieldId="5" dataDxfId="1"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E643BFA3-65CC-4538-B0BA-0E84F20F6D82}" name="BASE_PAROS_UNIFICADOS_2019__4" displayName="BASE_PAROS_UNIFICADOS_2019__4" ref="A1:N9" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:N9" xr:uid="{E643BFA3-65CC-4538-B0BA-0E84F20F6D82}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N9">
+    <sortCondition ref="A1:A9"/>
+  </sortState>
+  <tableColumns count="14">
+    <tableColumn id="1" xr3:uid="{B8FF729F-D099-4B49-99A9-58BAA2C49EC4}" uniqueName="1" name="fecha_inicio" queryTableFieldId="1" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{498A78DD-0D4E-4901-8903-17F783BDB9F3}" uniqueName="2" name="fecha_fin" queryTableFieldId="2" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{7E3A52E4-41CE-49E4-8399-0042C5A6911E}" uniqueName="3" name="ciudad" queryTableFieldId="3" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{308212A5-4083-4D58-BDAD-463ED98EF1C2}" uniqueName="4" name="organizaciones_sindicales" queryTableFieldId="4" dataDxfId="9"/>
+    <tableColumn id="5" xr3:uid="{763AF837-817F-41D2-AD37-B33D2816A3E5}" uniqueName="5" name="tipo_movilizacion" queryTableFieldId="5" dataDxfId="8"/>
     <tableColumn id="6" xr3:uid="{52DBD296-7433-4789-8B36-EAABC9E69C39}" uniqueName="6" name="duracion_dias" queryTableFieldId="6"/>
-    <tableColumn id="7" xr3:uid="{F1287BC6-3E2C-4E36-BF05-32461D4D848E}" uniqueName="7" name="razones_paro" queryTableFieldId="7" dataDxfId="0"/>
-    <tableColumn id="8" xr3:uid="{8321100A-59FE-4535-8491-2F95232C6428}" uniqueName="8" name="resumen" queryTableFieldId="8" dataDxfId="2"/>
-    <tableColumn id="9" xr3:uid="{C7233982-AD51-4DD7-A886-0B05921299A7}" uniqueName="9" name="fuentes_presentes" queryTableFieldId="9" dataDxfId="3"/>
-    <tableColumn id="10" xr3:uid="{65968824-881C-44F9-8852-CFED43B91E0D}" uniqueName="10" name="url_1" queryTableFieldId="10" dataDxfId="7"/>
-    <tableColumn id="11" xr3:uid="{AA9D840E-84D5-4FC5-BD17-9BF547D02A8B}" uniqueName="11" name="url_2" queryTableFieldId="11" dataDxfId="6"/>
-    <tableColumn id="12" xr3:uid="{A8327E8A-49CA-4BED-B9CB-057C2FF109FB}" uniqueName="12" name="url_3" queryTableFieldId="12" dataDxfId="5"/>
-    <tableColumn id="13" xr3:uid="{ADF7E12F-01C4-4FF3-A758-DAEDED9ECEEE}" uniqueName="13" name="url_4" queryTableFieldId="13" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{F1287BC6-3E2C-4E36-BF05-32461D4D848E}" uniqueName="7" name="razones_paro" queryTableFieldId="7" dataDxfId="7"/>
+    <tableColumn id="8" xr3:uid="{8321100A-59FE-4535-8491-2F95232C6428}" uniqueName="8" name="resumen" queryTableFieldId="8" dataDxfId="6"/>
+    <tableColumn id="9" xr3:uid="{C7233982-AD51-4DD7-A886-0B05921299A7}" uniqueName="9" name="fuentes_presentes" queryTableFieldId="9" dataDxfId="5"/>
+    <tableColumn id="10" xr3:uid="{65968824-881C-44F9-8852-CFED43B91E0D}" uniqueName="10" name="url_1" queryTableFieldId="10" dataDxfId="4"/>
+    <tableColumn id="11" xr3:uid="{AA9D840E-84D5-4FC5-BD17-9BF547D02A8B}" uniqueName="11" name="url_2" queryTableFieldId="11" dataDxfId="3"/>
+    <tableColumn id="12" xr3:uid="{A8327E8A-49CA-4BED-B9CB-057C2FF109FB}" uniqueName="12" name="url_3" queryTableFieldId="12" dataDxfId="2"/>
+    <tableColumn id="13" xr3:uid="{ADF7E12F-01C4-4FF3-A758-DAEDED9ECEEE}" uniqueName="13" name="url_4" queryTableFieldId="13" dataDxfId="1"/>
+    <tableColumn id="14" xr3:uid="{86049EBD-30DA-5F41-A7A7-502B0743E18D}" uniqueName="14" name="url_5" queryTableFieldId="14" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -692,27 +798,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BAB42AB-5EAF-47F9-8AB1-3FA39D0A3928}">
-  <dimension ref="A1:M10"/>
+  <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="65.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="81.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="81.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="13" width="81.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="65.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="81.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="81.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="13" width="81.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -731,10 +837,10 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
       <c r="I1" t="s">
@@ -752,380 +858,384 @@
       <c r="M1" t="s">
         <v>12</v>
       </c>
+      <c r="N1" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>43510</v>
+        <v>43482</v>
       </c>
       <c r="B2" s="1">
-        <v>43510</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>15</v>
+        <v>43482</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>64</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+    </row>
+    <row r="3" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="8">
+        <v>43510</v>
+      </c>
+      <c r="B3" s="1">
+        <v>43510</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H3" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I3" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J3" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K3" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L3" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="M3" t="s">
         <v>13</v>
       </c>
+      <c r="N3" s="3"/>
     </row>
-    <row r="3" spans="1:13" ht="75" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+    <row r="4" spans="1:14" ht="64" x14ac:dyDescent="0.2">
+      <c r="A4" s="8">
         <v>43543</v>
       </c>
-      <c r="B3" s="1">
-        <v>43543</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="2" t="s">
+      <c r="B4" s="1">
+        <v>43544</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E4" t="s">
         <v>15</v>
       </c>
-      <c r="F3">
+      <c r="F4">
         <v>2</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H4" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I4" t="s">
         <v>23</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="J4" t="s">
         <v>24</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="K4" t="s">
         <v>25</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="L4" t="s">
         <v>26</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="M4" t="s">
         <v>27</v>
       </c>
+      <c r="N4" s="3" t="s">
+        <v>51</v>
+      </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>43672</v>
-      </c>
-      <c r="B4" s="1">
-        <v>43672</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>43690</v>
+        <v>43615</v>
       </c>
       <c r="B5" s="1">
-        <v>43690</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>15</v>
+        <v>43615</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>56</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
-      <c r="G5" s="4" t="s">
-        <v>34</v>
+      <c r="G5" s="5" t="s">
+        <v>57</v>
       </c>
       <c r="H5" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+    </row>
+    <row r="6" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>43672</v>
+      </c>
+      <c r="B6" s="1">
+        <v>43672</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" t="s">
+        <v>31</v>
+      </c>
+      <c r="J6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K6" t="s">
+        <v>13</v>
+      </c>
+      <c r="L6" t="s">
+        <v>13</v>
+      </c>
+      <c r="M6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N6" s="3"/>
+    </row>
+    <row r="7" spans="1:14" ht="64" x14ac:dyDescent="0.2">
+      <c r="A7" s="8">
+        <v>43705</v>
+      </c>
+      <c r="B7" s="1">
+        <v>43706</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" t="s">
         <v>35</v>
       </c>
-      <c r="I5" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>43692</v>
-      </c>
-      <c r="B6" s="1">
-        <v>43692</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6">
-        <v>2</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>43705</v>
-      </c>
-      <c r="B7" s="1">
-        <v>43707</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" t="s">
         <v>15</v>
       </c>
       <c r="F7">
         <v>2</v>
       </c>
-      <c r="G7" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="I7" s="2" t="s">
+      <c r="G7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H7" t="s">
+        <v>37</v>
+      </c>
+      <c r="I7" t="s">
         <v>23</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>13</v>
+      <c r="J7" t="s">
+        <v>38</v>
+      </c>
+      <c r="K7" t="s">
+        <v>39</v>
+      </c>
+      <c r="L7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M7" t="s">
+        <v>53</v>
+      </c>
+      <c r="N7" t="s">
+        <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+    <row r="8" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" s="8">
         <v>43720</v>
       </c>
       <c r="B8" s="1">
         <v>43720</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="2" t="s">
+      <c r="C8" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" t="s">
         <v>15</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
-      <c r="G8" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="I8" s="2" t="s">
+      <c r="G8" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H8" t="s">
+        <v>42</v>
+      </c>
+      <c r="I8" t="s">
         <v>18</v>
       </c>
-      <c r="J8" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="K8" s="2" t="s">
+      <c r="J8" t="s">
+        <v>43</v>
+      </c>
+      <c r="K8" t="s">
+        <v>52</v>
+      </c>
+      <c r="L8" t="s">
+        <v>33</v>
+      </c>
+      <c r="M8" t="s">
         <v>13</v>
       </c>
-      <c r="L8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="N8" s="3"/>
     </row>
-    <row r="9" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+    <row r="9" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+      <c r="A9" s="8">
         <v>43790</v>
       </c>
       <c r="B9" s="1">
         <v>43790</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>51</v>
+      <c r="C9" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" t="s">
+        <v>45</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
-      <c r="G9" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="I9" s="2" t="s">
+      <c r="G9" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
         <v>31</v>
       </c>
-      <c r="J9" s="2" t="s">
+      <c r="J9" t="s">
+        <v>48</v>
+      </c>
+      <c r="K9" t="s">
+        <v>49</v>
+      </c>
+      <c r="L9" t="s">
+        <v>61</v>
+      </c>
+      <c r="M9" t="s">
+        <v>13</v>
+      </c>
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>43580</v>
+      </c>
+      <c r="B10" s="1">
+        <v>43580</v>
+      </c>
+      <c r="C10" t="s">
         <v>54</v>
       </c>
-      <c r="K9" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M9" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>43796</v>
-      </c>
-      <c r="B10" s="1">
-        <v>43796</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>15</v>
+      <c r="D10" t="s">
+        <v>69</v>
+      </c>
+      <c r="E10" t="s">
+        <v>70</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
-      <c r="G10" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M10" s="2" t="s">
-        <v>13</v>
+      <c r="G10" t="s">
+        <v>71</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="I10" t="s">
+        <v>73</v>
+      </c>
+      <c r="J10" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="K10" s="10" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H10" r:id="rId1" tooltip="Minuto a minuto: así avanza el Paro Nacional en todo el país" display="https://www.eltiempo.com/colombia/otras-ciudades/paro-nacional-del-25-de-abril-minuto-a-minuto-de-lo-que-sucede-353434?utm_source=chatgpt.com" xr:uid="{DE33FFE3-0CBB-9049-8724-5FF8F790AEAF}"/>
+    <hyperlink ref="J10" r:id="rId2" xr:uid="{38593161-C806-6D49-8DD3-5BDCCFF0D319}"/>
+    <hyperlink ref="J2" r:id="rId3" xr:uid="{DBC24BA9-AF21-D74D-87A0-29313E0D4DE4}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>
@@ -1136,7 +1246,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
